--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SLIIT\year 4\yr 4 sem 2\researchProject\Sinhala Text Valuation_ok\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M A L E E S H A\Documents\Sinhala Text Valuation_ok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CE3DE4-9708-4703-A4AF-BCF3608D24EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF19307-76EC-4BED-BEDE-07BBF281F947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="204" windowWidth="23040" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="12156" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>middle</t>
   </si>
   <si>
-    <t>final</t>
-  </si>
-  <si>
     <t>ගෙ</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>කැ</t>
+  </si>
+  <si>
+    <t>end</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -533,7 +533,7 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -544,7 +544,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -572,7 +572,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -589,7 +589,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -597,13 +597,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -628,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>15</v>
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -678,86 +678,86 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>52</v>
-      </c>
-      <c r="D16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
         <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
